--- a/Assets/ArtRes/Excel/怪物属性表.xlsx
+++ b/Assets/ArtRes/Excel/怪物属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project2024\Project2024\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7048AA8D-F949-4FEE-8EF9-F79C7777242B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE6D207-6106-4CF8-B093-7E0D1F79026B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3713,8 +3713,8 @@
   <dimension ref="A1:AT468"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT2" sqref="AT2"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS2" sqref="AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
